--- a/outcome/simulate data/A_HFMD.xlsx
+++ b/outcome/simulate data/A_HFMD.xlsx
@@ -409,19 +409,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>35507.3503097282</v>
+        <v>43488.7939373443</v>
       </c>
       <c r="C2" t="n">
-        <v>-19890.5124558999</v>
+        <v>-38933.206821492</v>
       </c>
       <c r="D2" t="n">
-        <v>-49216.3695625837</v>
+        <v>-66257.5812702765</v>
       </c>
       <c r="E2" t="n">
-        <v>90905.2130753564</v>
+        <v>120780.712245601</v>
       </c>
       <c r="F2" t="n">
-        <v>120231.07018204</v>
+        <v>149478.627778409</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -435,19 +435,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>26561.5499680157</v>
+        <v>31928.7175009993</v>
       </c>
       <c r="C3" t="n">
-        <v>-47765.7218249625</v>
+        <v>-91050.1676343404</v>
       </c>
       <c r="D3" t="n">
-        <v>-87112.2027704863</v>
+        <v>-129690.734347143</v>
       </c>
       <c r="E3" t="n">
-        <v>100888.821760994</v>
+        <v>216982.280910605</v>
       </c>
       <c r="F3" t="n">
-        <v>140235.302706518</v>
+        <v>262047.032234319</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
@@ -461,19 +461,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>68237.4249434803</v>
+        <v>77864.1860932481</v>
       </c>
       <c r="C4" t="n">
-        <v>-11231.9890452763</v>
+        <v>-65989.8900122636</v>
       </c>
       <c r="D4" t="n">
-        <v>-53300.5556404511</v>
+        <v>-113313.936254694</v>
       </c>
       <c r="E4" t="n">
-        <v>147706.838932237</v>
+        <v>284099.755586736</v>
       </c>
       <c r="F4" t="n">
-        <v>189775.405527412</v>
+        <v>327895.713533098</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
@@ -487,19 +487,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>176968.785550968</v>
+        <v>181396.320345217</v>
       </c>
       <c r="C5" t="n">
-        <v>95912.7366696424</v>
+        <v>40573.5216459512</v>
       </c>
       <c r="D5" t="n">
-        <v>53004.2562977069</v>
+        <v>-14071.1241084579</v>
       </c>
       <c r="E5" t="n">
-        <v>258024.834432293</v>
+        <v>407136.542453099</v>
       </c>
       <c r="F5" t="n">
-        <v>300933.314804229</v>
+        <v>482040.309482154</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
@@ -513,19 +513,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>361727.555507134</v>
+        <v>307530.679486878</v>
       </c>
       <c r="C6" t="n">
-        <v>280167.093752494</v>
+        <v>145423.459792574</v>
       </c>
       <c r="D6" t="n">
-        <v>236991.593334891</v>
+        <v>71773.6598790175</v>
       </c>
       <c r="E6" t="n">
-        <v>443288.017261773</v>
+        <v>593465.136585696</v>
       </c>
       <c r="F6" t="n">
-        <v>486463.517679377</v>
+        <v>702649.242357653</v>
       </c>
       <c r="G6" t="s">
         <v>8</v>
@@ -539,19 +539,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>407122.09401783</v>
+        <v>334491.998048584</v>
       </c>
       <c r="C7" t="n">
-        <v>325399.846455033</v>
+        <v>174298.060058567</v>
       </c>
       <c r="D7" t="n">
-        <v>282138.70180397</v>
+        <v>69131.6540900568</v>
       </c>
       <c r="E7" t="n">
-        <v>488844.341580626</v>
+        <v>571626.19980934</v>
       </c>
       <c r="F7" t="n">
-        <v>532105.48623169</v>
+        <v>676792.60577785</v>
       </c>
       <c r="G7" t="s">
         <v>8</v>
@@ -565,19 +565,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>348655.324177094</v>
+        <v>289095.765268625</v>
       </c>
       <c r="C8" t="n">
-        <v>266881.040909075</v>
+        <v>117461.040594857</v>
       </c>
       <c r="D8" t="n">
-        <v>223592.350219597</v>
+        <v>45173.7444756054</v>
       </c>
       <c r="E8" t="n">
-        <v>430429.607445112</v>
+        <v>464687.15954942</v>
       </c>
       <c r="F8" t="n">
-        <v>473718.29813459</v>
+        <v>550179.328719853</v>
       </c>
       <c r="G8" t="s">
         <v>8</v>
@@ -591,19 +591,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>217068.988958459</v>
+        <v>178665.296972091</v>
       </c>
       <c r="C9" t="n">
-        <v>135277.954574379</v>
+        <v>-18700.663354265</v>
       </c>
       <c r="D9" t="n">
-        <v>91980.3963797046</v>
+        <v>-95978.8953287448</v>
       </c>
       <c r="E9" t="n">
-        <v>298860.023342539</v>
+        <v>299866.774358593</v>
       </c>
       <c r="F9" t="n">
-        <v>342157.581537214</v>
+        <v>365146.076861614</v>
       </c>
       <c r="G9" t="s">
         <v>8</v>
@@ -617,19 +617,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>231546.651567724</v>
+        <v>179471.336124136</v>
       </c>
       <c r="C10" t="n">
-        <v>149750.223721101</v>
+        <v>-12051.3940109716</v>
       </c>
       <c r="D10" t="n">
-        <v>106449.810399821</v>
+        <v>-94017.2228298805</v>
       </c>
       <c r="E10" t="n">
         <v>313343.079414347</v>
       </c>
       <c r="F10" t="n">
-        <v>356643.492735627</v>
+        <v>379588.707574272</v>
       </c>
       <c r="G10" t="s">
         <v>8</v>
@@ -643,19 +643,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>223036.290675708</v>
+        <v>168097.498354373</v>
       </c>
       <c r="C11" t="n">
-        <v>141238.127732488</v>
+        <v>-27995.9385706298</v>
       </c>
       <c r="D11" t="n">
-        <v>97936.7959065523</v>
+        <v>-114395.412242868</v>
       </c>
       <c r="E11" t="n">
         <v>304834.453618928</v>
       </c>
       <c r="F11" t="n">
-        <v>348135.785444863</v>
+        <v>384828.516857813</v>
       </c>
       <c r="G11" t="s">
         <v>8</v>
@@ -669,19 +669,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>184539.328089523</v>
+        <v>136080.742434915</v>
       </c>
       <c r="C12" t="n">
-        <v>102740.612004633</v>
+        <v>-68597.3639848487</v>
       </c>
       <c r="D12" t="n">
-        <v>59438.9873631847</v>
+        <v>-159213.813968883</v>
       </c>
       <c r="E12" t="n">
-        <v>266338.044174414</v>
+        <v>273759.733525513</v>
       </c>
       <c r="F12" t="n">
-        <v>309639.668815862</v>
+        <v>364376.183509547</v>
       </c>
       <c r="G12" t="s">
         <v>8</v>
@@ -695,19 +695,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>144655.288736507</v>
+        <v>99418.6774165782</v>
       </c>
       <c r="C13" t="n">
-        <v>62856.4120441821</v>
+        <v>-114924.269814328</v>
       </c>
       <c r="D13" t="n">
-        <v>19554.7023822937</v>
+        <v>-209569.993249558</v>
       </c>
       <c r="E13" t="n">
-        <v>226454.165428832</v>
+        <v>242655.785162036</v>
       </c>
       <c r="F13" t="n">
-        <v>269755.87509072</v>
+        <v>337301.508597267</v>
       </c>
       <c r="G13" t="s">
         <v>8</v>
@@ -721,19 +721,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>91011.6556284642</v>
+        <v>59118.7263891618</v>
       </c>
       <c r="C14" t="n">
-        <v>8931.39755334477</v>
+        <v>-173406.675992979</v>
       </c>
       <c r="D14" t="n">
-        <v>-34519.266414944</v>
+        <v>-271917.005001908</v>
       </c>
       <c r="E14" t="n">
-        <v>173091.913703584</v>
+        <v>220969.897061907</v>
       </c>
       <c r="F14" t="n">
-        <v>216542.577671872</v>
+        <v>297284.535407938</v>
       </c>
       <c r="G14" t="s">
         <v>8</v>
@@ -747,19 +747,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>55576.9754118171</v>
+        <v>38754.3640394073</v>
       </c>
       <c r="C15" t="n">
-        <v>-26725.4130531799</v>
+        <v>-211171.470653799</v>
       </c>
       <c r="D15" t="n">
-        <v>-70293.6657468706</v>
+        <v>-313400.414100929</v>
       </c>
       <c r="E15" t="n">
-        <v>137879.363876814</v>
+        <v>262516.438351481</v>
       </c>
       <c r="F15" t="n">
-        <v>181447.616570505</v>
+        <v>325302.771854462</v>
       </c>
       <c r="G15" t="s">
         <v>8</v>
@@ -773,19 +773,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>85404.8667630578</v>
+        <v>80942.2708127086</v>
       </c>
       <c r="C16" t="n">
-        <v>3031.06764339114</v>
+        <v>-176485.632659604</v>
       </c>
       <c r="D16" t="n">
-        <v>-40574.9875674038</v>
+        <v>-282302.591769123</v>
       </c>
       <c r="E16" t="n">
-        <v>167778.665882724</v>
+        <v>324037.081279724</v>
       </c>
       <c r="F16" t="n">
-        <v>211384.721093519</v>
+        <v>397638.469771562</v>
       </c>
       <c r="G16" t="s">
         <v>8</v>
@@ -799,19 +799,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>188041.566735306</v>
+        <v>182239.489405414</v>
       </c>
       <c r="C17" t="n">
-        <v>105644.782642807</v>
+        <v>-62648.7956882815</v>
       </c>
       <c r="D17" t="n">
-        <v>62026.5599223782</v>
+        <v>-171936.035529238</v>
       </c>
       <c r="E17" t="n">
-        <v>270438.350827805</v>
+        <v>409039.894788675</v>
       </c>
       <c r="F17" t="n">
-        <v>314056.573548234</v>
+        <v>484295.897957053</v>
       </c>
       <c r="G17" t="s">
         <v>8</v>
@@ -825,19 +825,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>348708.260205373</v>
+        <v>297204.424972627</v>
       </c>
       <c r="C18" t="n">
-        <v>266304.07505828</v>
+        <v>83714.3906057662</v>
       </c>
       <c r="D18" t="n">
-        <v>222681.934456211</v>
+        <v>-28936.2762760769</v>
       </c>
       <c r="E18" t="n">
-        <v>431112.445352465</v>
+        <v>596164.590196818</v>
       </c>
       <c r="F18" t="n">
-        <v>474734.585954534</v>
+        <v>705848.535017969</v>
       </c>
       <c r="G18" t="s">
         <v>8</v>
@@ -851,19 +851,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>399927.352868156</v>
+        <v>320437.369336093</v>
       </c>
       <c r="C19" t="n">
-        <v>317520.784326286</v>
+        <v>109625.882344073</v>
       </c>
       <c r="D19" t="n">
-        <v>273897.382031235</v>
+        <v>-6290.65964106913</v>
       </c>
       <c r="E19" t="n">
-        <v>482333.921410026</v>
+        <v>574156.115986009</v>
       </c>
       <c r="F19" t="n">
-        <v>525957.323705077</v>
+        <v>679791.240247492</v>
       </c>
       <c r="G19" t="s">
         <v>8</v>
@@ -877,19 +877,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>359156.470677052</v>
+        <v>278401.862192652</v>
       </c>
       <c r="C20" t="n">
-        <v>276749.134595164</v>
+        <v>29043.1673564049</v>
       </c>
       <c r="D20" t="n">
-        <v>233125.325988971</v>
+        <v>-90049.723542516</v>
       </c>
       <c r="E20" t="n">
-        <v>441563.80675894</v>
+        <v>478986.81963429</v>
       </c>
       <c r="F20" t="n">
-        <v>485187.615365134</v>
+        <v>598079.710533211</v>
       </c>
       <c r="G20" t="s">
         <v>8</v>
@@ -903,19 +903,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>222687.312809497</v>
+        <v>175639.742113398</v>
       </c>
       <c r="C21" t="n">
-        <v>140279.729629817</v>
+        <v>-103534.77082739</v>
       </c>
       <c r="D21" t="n">
-        <v>96655.7902179541</v>
+        <v>-225721.466582416</v>
       </c>
       <c r="E21" t="n">
-        <v>305094.895989177</v>
+        <v>358097.554434114</v>
       </c>
       <c r="F21" t="n">
-        <v>348718.83540104</v>
+        <v>480284.25018914</v>
       </c>
       <c r="G21" t="s">
         <v>8</v>
@@ -929,19 +929,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>231084.432653666</v>
+        <v>177126.058200939</v>
       </c>
       <c r="C22" t="n">
-        <v>148676.770176691</v>
+        <v>-93730.386690667</v>
       </c>
       <c r="D22" t="n">
-        <v>105052.788787376</v>
+        <v>-218934.462408675</v>
       </c>
       <c r="E22" t="n">
-        <v>313492.095130641</v>
+        <v>379301.871435058</v>
       </c>
       <c r="F22" t="n">
-        <v>357116.076519957</v>
+        <v>504505.947153066</v>
       </c>
       <c r="G22" t="s">
         <v>8</v>
@@ -955,19 +955,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>207630.854416032</v>
+        <v>164395.90235604</v>
       </c>
       <c r="C23" t="n">
-        <v>125223.167275367</v>
+        <v>-106865.371185745</v>
       </c>
       <c r="D23" t="n">
-        <v>81599.172829882</v>
+        <v>-235015.800499383</v>
       </c>
       <c r="E23" t="n">
-        <v>290038.541556699</v>
+        <v>377298.47580069</v>
       </c>
       <c r="F23" t="n">
-        <v>333662.536002183</v>
+        <v>505448.905114328</v>
       </c>
       <c r="G23" t="s">
         <v>8</v>
@@ -981,19 +981,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>171310.143662607</v>
+        <v>134340.567177793</v>
       </c>
       <c r="C24" t="n">
-        <v>88902.4512938774</v>
+        <v>-144941.412293999</v>
       </c>
       <c r="D24" t="n">
-        <v>45278.4540808233</v>
+        <v>-275971.960221338</v>
       </c>
       <c r="E24" t="n">
-        <v>253717.836031336</v>
+        <v>350103.781834662</v>
       </c>
       <c r="F24" t="n">
-        <v>297341.83324439</v>
+        <v>481134.329762002</v>
       </c>
       <c r="G24" t="s">
         <v>8</v>
@@ -1007,19 +1007,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>132474.503459546</v>
+        <v>99474.033061917</v>
       </c>
       <c r="C25" t="n">
-        <v>50066.8178373707</v>
+        <v>-188980.469177104</v>
       </c>
       <c r="D25" t="n">
-        <v>6442.82419572651</v>
+        <v>-322829.176481314</v>
       </c>
       <c r="E25" t="n">
-        <v>214882.189081722</v>
+        <v>316711.984524812</v>
       </c>
       <c r="F25" t="n">
-        <v>258506.182723366</v>
+        <v>450560.691829022</v>
       </c>
       <c r="G25" t="s">
         <v>8</v>
@@ -1033,19 +1033,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>86493.8647612679</v>
+        <v>60387.7960709592</v>
       </c>
       <c r="C26" t="n">
-        <v>1324.49875590146</v>
+        <v>-245376.291388587</v>
       </c>
       <c r="D26" t="n">
-        <v>-43761.440171149</v>
+        <v>-381985.033436368</v>
       </c>
       <c r="E26" t="n">
-        <v>171663.230766634</v>
+        <v>270743.821794618</v>
       </c>
       <c r="F26" t="n">
-        <v>216749.169693685</v>
+        <v>407352.563842399</v>
       </c>
       <c r="G26" t="s">
         <v>8</v>
@@ -1059,19 +1059,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>59098.687747456</v>
+        <v>40197.7567185061</v>
       </c>
       <c r="C27" t="n">
-        <v>-28216.7230941042</v>
+        <v>-281227.011879203</v>
       </c>
       <c r="D27" t="n">
-        <v>-74438.7095339803</v>
+        <v>-420541.118705275</v>
       </c>
       <c r="E27" t="n">
-        <v>146414.098589016</v>
+        <v>291535.363385973</v>
       </c>
       <c r="F27" t="n">
-        <v>192636.085028892</v>
+        <v>384428.319565866</v>
       </c>
       <c r="G27" t="s">
         <v>8</v>
@@ -1085,19 +1085,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>92520.8440310889</v>
+        <v>81386.9399099006</v>
       </c>
       <c r="C28" t="n">
-        <v>4525.43038579983</v>
+        <v>-244776.436738788</v>
       </c>
       <c r="D28" t="n">
-        <v>-42056.5277941174</v>
+        <v>-386744.363812531</v>
       </c>
       <c r="E28" t="n">
-        <v>180516.257676378</v>
+        <v>332907.283249205</v>
       </c>
       <c r="F28" t="n">
-        <v>227098.215856295</v>
+        <v>433559.086517466</v>
       </c>
       <c r="G28" t="s">
         <v>8</v>
@@ -1111,19 +1111,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>197006.03652977</v>
+        <v>181972.608279094</v>
       </c>
       <c r="C29" t="n">
-        <v>108792.740592082</v>
+        <v>-129305.261359897</v>
       </c>
       <c r="D29" t="n">
-        <v>62095.4424937277</v>
+        <v>-273878.302672877</v>
       </c>
       <c r="E29" t="n">
-        <v>285219.332467458</v>
+        <v>416904.69070596</v>
       </c>
       <c r="F29" t="n">
-        <v>331916.630565812</v>
+        <v>561477.73201894</v>
       </c>
       <c r="G29" t="s">
         <v>8</v>
@@ -1137,19 +1137,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>364994.799308181</v>
+        <v>297548.063278243</v>
       </c>
       <c r="C30" t="n">
-        <v>276711.447796254</v>
+        <v>18577.5324505722</v>
       </c>
       <c r="D30" t="n">
-        <v>229977.064517045</v>
+        <v>-128554.504276151</v>
       </c>
       <c r="E30" t="n">
-        <v>453278.150820108</v>
+        <v>598120.659351337</v>
       </c>
       <c r="F30" t="n">
-        <v>500012.534099317</v>
+        <v>721587.636056144</v>
       </c>
       <c r="G30" t="s">
         <v>8</v>
